--- a/Saved results.xlsx
+++ b/Saved results.xlsx
@@ -128,16 +128,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n" s="0">
+        <v>0.36386494687837645</v>
+      </c>
+      <c r="C2" t="n" s="0">
         <v>-6.1250292146053695</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="D2" t="n" s="0">
         <v>0.3161410385052251</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="E2" t="n" s="0">
         <v>1.4644965114015578</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>0.36386494687837645</v>
       </c>
     </row>
     <row r="3">
@@ -145,16 +145,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>0.3535023539395</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>-0.990743864327669</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="D3" t="n" s="0">
         <v>0.125876679837045</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="E3" t="n" s="0">
         <v>-5.98058680452659</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>0.3535023539395</v>
       </c>
     </row>
     <row r="4">
@@ -179,16 +179,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
+        <v>2.75127265503584</v>
+      </c>
+      <c r="C5" t="n" s="0">
         <v>0.989677801262587</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="D5" t="n" s="0">
         <v>0.966296196231494</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="E5" t="n" s="0">
         <v>10.8806316091496</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>2.75127265503584</v>
       </c>
     </row>
     <row r="6">
@@ -196,33 +196,33 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
+        <v>0.6319404754315598</v>
+      </c>
+      <c r="C6" t="n" s="0">
         <v>0.599571618906367</v>
       </c>
-      <c r="C6" t="n" s="0">
+      <c r="D6" t="n" s="0">
         <v>0.2019685379613207</v>
       </c>
-      <c r="D6" t="n" s="0">
+      <c r="E6" t="n" s="0">
         <v>2.9024093117951804</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>0.6319404754315598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B7" t="e" s="0">
+      <c r="B7" t="n" s="0">
+        <v>1.5937648166443903</v>
+      </c>
+      <c r="C7" t="e" s="0">
         <v>#NUM!</v>
       </c>
-      <c r="C7" t="n" s="0">
+      <c r="D7" t="n" s="0">
         <v>0.5977237470428488</v>
       </c>
-      <c r="D7" t="e" s="0">
+      <c r="E7" t="e" s="0">
         <v>#NUM!</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>1.5937648166443903</v>
       </c>
     </row>
     <row r="8">
@@ -230,16 +230,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
+        <v>1.7367445829916364</v>
+      </c>
+      <c r="C8" t="n" s="0">
         <v>-0.09788877699989826</v>
       </c>
-      <c r="C8" t="n" s="0">
+      <c r="D8" t="n" s="0">
         <v>0.6388558059917381</v>
       </c>
-      <c r="D8" t="n" s="0">
+      <c r="E8" t="n" s="0">
         <v>1.9818478836917857</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>1.7367445829916364</v>
       </c>
     </row>
     <row r="9">
@@ -247,16 +247,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
+        <v>2.39777030109634</v>
+      </c>
+      <c r="C9" t="n" s="0">
         <v>1.980421665590256</v>
       </c>
-      <c r="C9" t="n" s="0">
+      <c r="D9" t="n" s="0">
         <v>0.840419516394449</v>
       </c>
-      <c r="D9" t="n" s="0">
+      <c r="E9" t="n" s="0">
         <v>16.86121841367619</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>2.39777030109634</v>
       </c>
     </row>
     <row r="10">
@@ -264,16 +264,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
+        <v>0.3993487644886659</v>
+      </c>
+      <c r="C10" t="n" s="0">
         <v>0.35948612619800174</v>
       </c>
-      <c r="C10" t="n" s="0">
+      <c r="D10" t="n" s="0">
         <v>0.04079129032623344</v>
       </c>
-      <c r="D10" t="n" s="0">
+      <c r="E10" t="n" s="0">
         <v>8.423979813195373</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>0.3993487644886659</v>
       </c>
     </row>
   </sheetData>
@@ -308,16 +308,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.3594861261980017</v>
+        <v>0.39934876448866596</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>4.6432601778463936E-4</v>
+        <v>-0.35902180018021723</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>-0.13852540678511222</v>
+        <v>0.04032696430844883</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>-0.35902180018021723</v>
+        <v>0.16049300851968745</v>
       </c>
     </row>
     <row r="3">
@@ -325,16 +325,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="0">
+        <v>-0.35902180018021723</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.3594861261980017</v>
+      </c>
+      <c r="D3" t="n" s="0">
         <v>4.6432601778463936E-4</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>0.040791290326233465</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.021967601734574325</v>
-      </c>
       <c r="E3" t="n" s="0">
-        <v>0.04032696430844883</v>
+        <v>-0.13852540678511222</v>
       </c>
     </row>
     <row r="4">
@@ -342,16 +342,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>-0.13852540678511222</v>
+        <v>0.04032696430844883</v>
       </c>
       <c r="C4" t="n" s="0">
+        <v>4.6432601778463936E-4</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.040791290326233465</v>
+      </c>
+      <c r="E4" t="n" s="0">
         <v>0.021967601734574325</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>8.423979813195375</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>0.16049300851968745</v>
       </c>
     </row>
     <row r="5">
@@ -359,16 +359,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>-0.35902180018021723</v>
+        <v>0.16049300851968745</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.04032696430844883</v>
+        <v>-0.13852540678511222</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.16049300851968745</v>
+        <v>0.021967601734574325</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.39934876448866596</v>
+        <v>8.423979813195375</v>
       </c>
     </row>
   </sheetData>
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>-0.1666730853611892</v>
+        <v>1.6318177453380243</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>-0.029104468638607328</v>
+        <v>1.8416714206452485</v>
       </c>
     </row>
     <row r="3">
@@ -408,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.5952152843537138</v>
+        <v>-0.19744111834302713</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.6824963276297623</v>
+        <v>0.0016635643432306307</v>
       </c>
     </row>
     <row r="4">
@@ -419,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.830884080762972</v>
+        <v>0.6053211285692598</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.1328116866205993</v>
+        <v>0.6723904834142164</v>
       </c>
     </row>
     <row r="5">
@@ -430,10 +430,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>1.5160519055638921</v>
+        <v>1.4999344084469999</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>1.9574372604193806</v>
+        <v>2.4637613589365714</v>
       </c>
     </row>
   </sheetData>
